--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Angular 1" sheetId="2" r:id="rId2"/>
+    <sheet name="React" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Topics</t>
   </si>
@@ -23,30 +23,15 @@
     <t>Definitions</t>
   </si>
   <si>
-    <t>Directives</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
-    <t>Routing</t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
     <t>Pluralsight</t>
   </si>
   <si>
-    <t>Angular 2</t>
-  </si>
-  <si>
-    <t>Angular 4</t>
-  </si>
-  <si>
     <t>React.js: Getting Started</t>
   </si>
   <si>
@@ -60,6 +45,45 @@
   </si>
   <si>
     <t>React.js: Getting Started - Definitions</t>
+  </si>
+  <si>
+    <t>Reacts JS url</t>
+  </si>
+  <si>
+    <t>https://reactjs.org/</t>
+  </si>
+  <si>
+    <t>What is React</t>
+  </si>
+  <si>
+    <t>JavaScript library</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>one of the framework built on top of React</t>
+  </si>
+  <si>
+    <t>React design concepts</t>
+  </si>
+  <si>
+    <t>1. Components - to describe UI. Nothing but javascript functions
+2. Reactive Updates
+3. Virtual representation of views in memory - Virtual DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time some thing changes in HTML, new DOM should be written back to browser. Instead of writing whole tree React will write only the difference between new tree and previous tree, since React has both in-memory. </t>
+  </si>
+  <si>
+    <t>Tree Reconsiliation</t>
+  </si>
+  <si>
+    <t>Types of components</t>
+  </si>
+  <si>
+    <t>1. Function component
+2. Class component</t>
   </si>
 </sst>
 </file>
@@ -190,7 +214,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -220,27 +244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -249,6 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,6 +284,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -592,39 +617,24 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" location="Services!A1" display="Services"/>
-    <hyperlink ref="A3" location="Directives!A1" display="Directives"/>
-    <hyperlink ref="A2" location="'Angular 1'!A1" display="Definitions"/>
+    <hyperlink ref="A2" location="React!A1" display="Definitions"/>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A5" location="Routing!A1" display="Routing"/>
-    <hyperlink ref="A6" location="'Angular 2'!A1" display="Angular 2"/>
-    <hyperlink ref="A7" location="'Angular 4'!A1" display="Angular 4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,17 +642,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.140625" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -650,39 +660,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23"/>
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
@@ -691,10 +701,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -703,65 +713,79 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="B15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="B21" s="27"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5"/>
@@ -773,299 +797,223 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5"/>
-      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5"/>
-      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:1">
       <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="26"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="22"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="22"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="22"/>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="6"/>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="19"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="26"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2">
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="22"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="22"/>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="5"/>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:2">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="28"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="24"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="28"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="24"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6"/>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="6"/>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="6"/>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="6"/>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="6"/>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="27"/>
-      <c r="B85" s="8"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="8"/>
-    </row>
-    <row r="87" spans="1:2">
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="23"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="23"/>
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="6"/>
-      <c r="B87" s="8"/>
-    </row>
-    <row r="88" spans="1:2">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" s="6"/>
-      <c r="B88" s="8"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="25"/>
-      <c r="B89" s="8"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="25"/>
-      <c r="B90" s="8"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="25"/>
-      <c r="B91" s="14"/>
-    </row>
-    <row r="92" spans="1:2">
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="21"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="21"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="21"/>
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="6"/>
-      <c r="B92" s="8"/>
-    </row>
-    <row r="93" spans="1:2">
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-    </row>
-    <row r="94" spans="1:2">
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-    </row>
-    <row r="95" spans="1:2">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-    </row>
-    <row r="96" spans="1:2">
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="8"/>
-      <c r="B96" s="14"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="10"/>
-      <c r="B100" s="12"/>
+      <c r="B100" s="11"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="21"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="25"/>
+      <c r="A102" s="21"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="B108" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1087,8 +1035,9 @@
     <hyperlink ref="B1" location="'Angular 1'!A2" display="Up"/>
     <hyperlink ref="B3" r:id="rId1" tooltip="React.js: Getting Started" display="https://app.pluralsight.com/library/courses/react-js-getting-started"/>
     <hyperlink ref="B4" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
+    <hyperlink ref="B13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Topics</t>
   </si>
   <si>
-    <t>Definitions</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
   </si>
   <si>
     <t>React.js: Getting Started - Definitions</t>
-  </si>
-  <si>
-    <t>Reacts JS url</t>
-  </si>
-  <si>
-    <t>https://reactjs.org/</t>
   </si>
   <si>
     <t>What is React</t>
@@ -84,13 +75,199 @@
   <si>
     <t>1. Function component
 2. Class component</t>
+  </si>
+  <si>
+    <t>React JS url</t>
+  </si>
+  <si>
+    <t>https://reactjs.org/docs/installation.html</t>
+  </si>
+  <si>
+    <t>Tutorialspoint</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\images\reactjs\reactjs_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/reactjs/index.htm</t>
+  </si>
+  <si>
+    <t>Tutorials point - Definitions</t>
+  </si>
+  <si>
+    <t>React Features</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JSX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">− JSX is JavaScript syntax extension. It isn't necessary to use JSX in React development, but it is recommended.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Components </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">− React is all about components. You need to think of everything as a component. This will help you maintain the code when working on larger scale projects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unidirectional data flow and Flux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> − React implements one-way data flow which makes it easy to reason about your app. Flux is a pattern that helps keeping your data unidirectional
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">License </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>− React is licensed under the Facebook Inc. Documentation is licensed under CC BY 4.0</t>
+    </r>
+  </si>
+  <si>
+    <t>React Advantages</t>
+  </si>
+  <si>
+    <t>Uses virtual DOM which is a JavaScript object. This will improve apps performance, since JavaScript virtual DOM is faster than the regular DOM.
+Can be used on client and server side as well as with other frameworks.
+Component and data patterns improve readability, which helps to maintain larger apps.</t>
+  </si>
+  <si>
+    <t>React Limitations</t>
+  </si>
+  <si>
+    <t>Covers only the view layer of the app, hence you still need to choose other technologies to get a complete tooling set for development.
+Uses inline templating and JSX, which might seem awkward to some developers.</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\ReactJsProjects\ReactJSHelloWorld</t>
+  </si>
+  <si>
+    <t>React uses JSX for templating instead of regular JavaScript. It is not necessary to use it, however, following are some pros that come with it</t>
+  </si>
+  <si>
+    <t>It is faster because it performs optimization while compiling code to JavaScript.
+It is also type-safe and most of the errors can be caught during compilation.
+It makes it easier and faster to write templates, if you are familiar with HTML.</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>create package.json</t>
+  </si>
+  <si>
+    <t>1. Create a new folder
+2. npm init</t>
+  </si>
+  <si>
+    <t>install babel and babel-cli: using npm</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\ReactJsProjects\ReactJSHelloWorld&gt;npm install -g babel
+E:\Backup\JavaPrep\practiceProjects\ReactJsProjects\ReactJSHelloWorld&gt;npm install -g babel-cli</t>
+  </si>
+  <si>
+    <t>intall webpack, webpack-dev-server using npm: --save command will add these packages to package.json</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install webpack --save
+C:\Users\username\Desktop\reactApp&gt;npm install webpack-dev-server --save
+C:\Users\username\Desktop\reactApp&gt;npm install webpack-dev-server -g</t>
+  </si>
+  <si>
+    <t>install react, react-dom using npms:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install react --save
+C:\Users\username\Desktop\reactApp&gt;npm install react-dom --save</t>
+  </si>
+  <si>
+    <t>install some more babel plugins using npm:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install babel-core --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-loader --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-preset-react --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-preset-es2015 --save</t>
+  </si>
+  <si>
+    <t>Create the Files:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;touch index.html
+C:\Users\username\Desktop\reactApp&gt;touch App.jsx
+C:\Users\username\Desktop\reactApp&gt;touch main.js
+C:\Users\username\Desktop\reactApp&gt;touch webpack.config.js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +306,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -214,7 +407,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -247,9 +440,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -265,6 +455,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,15 +492,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,12 +807,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -642,69 +841,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="60.140625" customWidth="1"/>
-    <col min="2" max="2" width="125.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="125.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19"/>
+      <c r="A9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -713,102 +916,163 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19"/>
+      <c r="A12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>11</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="27"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="12"/>
-    </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14"/>
+      <c r="A24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:2" ht="90">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60">
+      <c r="A33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="14"/>
@@ -817,25 +1081,25 @@
       <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5"/>
@@ -851,149 +1115,149 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:1">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="22"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="22"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="22"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="22"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="6"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="20"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="22"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="22"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="22"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:2">
+    <row r="52" spans="1:2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="27"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="27"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="27"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="27"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="25"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="25"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="27"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="27"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="27"/>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:1">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="24"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="24"/>
-    </row>
-    <row r="70" spans="1:2">
+    <row r="68" spans="1:1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:1">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:2">
+    <row r="72" spans="1:1">
+      <c r="A72" s="29"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="29"/>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:1">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:1">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:1">
       <c r="A77" s="5"/>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="16"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="6"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="6"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="6"/>
-    </row>
-    <row r="84" spans="1:1">
+    <row r="78" spans="1:1">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="6"/>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="23"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="23"/>
-    </row>
-    <row r="87" spans="1:1">
+    <row r="85" spans="1:2">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="6"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:2">
       <c r="A88" s="6"/>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="21"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="21"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="21"/>
-    </row>
-    <row r="92" spans="1:1">
+    <row r="89" spans="1:2">
+      <c r="A89" s="28"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="28"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="6"/>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="8"/>
+    <row r="93" spans="1:2">
+      <c r="A93" s="26"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="26"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="26"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="8"/>
@@ -1001,43 +1265,57 @@
     <row r="98" spans="1:2">
       <c r="A98" s="8"/>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="8"/>
+    </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="26"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="21"/>
+      <c r="A102" s="8"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="19"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="26"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B1" location="'Angular 1'!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1" tooltip="React.js: Getting Started" display="https://app.pluralsight.com/library/courses/react-js-getting-started"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
-    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B1" location="React!A2" display="Up"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="React.js: Getting Started" display="https://app.pluralsight.com/library/courses/react-js-getting-started"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
+    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Topics</t>
   </si>
@@ -238,9 +238,6 @@
 C:\Users\username\Desktop\reactApp&gt;npm install webpack-dev-server -g</t>
   </si>
   <si>
-    <t>install react, react-dom using npms:</t>
-  </si>
-  <si>
     <t>C:\Users\username\Desktop\reactApp&gt;npm install react --save
 C:\Users\username\Desktop\reactApp&gt;npm install react-dom --save</t>
   </si>
@@ -261,6 +258,12 @@
 C:\Users\username\Desktop\reactApp&gt;touch App.jsx
 C:\Users\username\Desktop\reactApp&gt;touch main.js
 C:\Users\username\Desktop\reactApp&gt;touch webpack.config.js</t>
+  </si>
+  <si>
+    <t>install react, react-dom using npm:</t>
+  </si>
+  <si>
+    <t>Tutorialspoint - pdf</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -472,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,8 +850,8 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,10 +869,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -878,7 +884,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>22</v>
@@ -904,10 +910,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -916,10 +922,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
@@ -935,10 +941,10 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -989,10 +995,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:2" ht="90">
       <c r="A25" t="s">
@@ -1051,27 +1057,27 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60">
       <c r="A33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
       <c r="A34" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1139,34 +1145,34 @@
       <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="27"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="28"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="27"/>
+      <c r="A58" s="28"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="27"/>
+      <c r="A59" s="28"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="25"/>
+      <c r="A62" s="26"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="28"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="28"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="27"/>
+      <c r="A65" s="28"/>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5"/>
@@ -1187,10 +1193,10 @@
       <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="29"/>
+      <c r="A72" s="30"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="29"/>
+      <c r="A73" s="30"/>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5"/>
@@ -1236,10 +1242,10 @@
       <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="28"/>
+      <c r="A89" s="29"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="28"/>
+      <c r="A90" s="29"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6"/>
@@ -1248,13 +1254,13 @@
       <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="26"/>
+      <c r="A93" s="27"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="26"/>
+      <c r="A94" s="27"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="26"/>
+      <c r="A95" s="27"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6"/>
@@ -1282,11 +1288,11 @@
       <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="26"/>
+      <c r="A105" s="27"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="26"/>
+      <c r="A106" s="27"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9"/>

--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Topics</t>
   </si>
@@ -264,6 +264,57 @@
   </si>
   <si>
     <t>Tutorialspoint - pdf</t>
+  </si>
+  <si>
+    <t>We are using jscomplete/repl for examples</t>
+  </si>
+  <si>
+    <t>https://jscomplete.com/repl/</t>
+  </si>
+  <si>
+    <t>Display button</t>
+  </si>
+  <si>
+    <t>class Button extends React.Component{
+ state: {
+   data: []
+  }
+  render(){
+   return(
+     &lt;div&gt;
+       &lt;button&gt;Go&lt;/button&gt;
+      &lt;/div&gt;
+    );
+  }
+}
+ReactDOM.render(&lt;Button /&gt;, mountNode);</t>
+  </si>
+  <si>
+    <t>Display button with label passed from tag</t>
+  </si>
+  <si>
+    <t>class Button extends React.Component{
+ state: {
+   data: []
+  }
+  render(props){
+   return(
+     &lt;div&gt;
+       &lt;button&gt;{this.props.buttonLabel}&lt;/button&gt;
+      &lt;/div&gt;
+    );
+  }
+}
+ReactDOM.render(&lt;Button buttonLabel="Do"/&gt;, mountNode);</t>
+  </si>
+  <si>
+    <t>react-devtools - chrome extension - for chrome
+react-devtools - firefox extension - for firefox</t>
+  </si>
+  <si>
+    <t>1. helps us in debuggin react application
+2. inspect and interact with react application
+3. after adding react-devtools extension, if we open any site which is using react. Then react icon will be enabled. Now open dev tools -&gt; we will have react tab -&gt; here we can see components the site is using</t>
   </si>
 </sst>
 </file>
@@ -410,7 +461,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -475,6 +526,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -850,8 +904,8 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,10 +923,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -910,10 +964,10 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -922,10 +976,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
@@ -941,10 +995,10 @@
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
@@ -995,10 +1049,10 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2" ht="90">
       <c r="A25" t="s">
@@ -1084,19 +1138,42 @@
       <c r="A35" s="14"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="13"/>
+      <c r="A37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="225">
+      <c r="A38" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="225">
+      <c r="A39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="13"/>
@@ -1145,34 +1222,34 @@
       <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="28"/>
+      <c r="A56" s="29"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="26"/>
+      <c r="A61" s="27"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="26"/>
+      <c r="A62" s="27"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="29"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="28"/>
+      <c r="A64" s="29"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="5"/>
@@ -1193,10 +1270,10 @@
       <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="5"/>
@@ -1242,10 +1319,10 @@
       <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="29"/>
+      <c r="A89" s="30"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="6"/>
@@ -1254,13 +1331,13 @@
       <c r="A92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="27"/>
+      <c r="A93" s="28"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="27"/>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="27"/>
+      <c r="A95" s="28"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="6"/>
@@ -1288,17 +1365,17 @@
       <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="27"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="19"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="27"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:B2"/>
@@ -1312,6 +1389,7 @@
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -1320,8 +1398,9 @@
     <hyperlink ref="B6" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
     <hyperlink ref="B17" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B37" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Topics</t>
   </si>
@@ -316,6 +316,12 @@
 2. inspect and interact with react application
 3. after adding react-devtools extension, if we open any site which is using react. Then react icon will be enabled. Now open dev tools -&gt; we will have react tab -&gt; here we can see components the site is using</t>
   </si>
+  <si>
+    <t>Building Scalable APIs with GraphQL [Course]</t>
+  </si>
+  <si>
+    <t>React Fundamentals [Course]</t>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADDB7B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +473,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -553,6 +565,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -561,6 +577,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFADDB7B"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -901,11 +922,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,10 +966,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -956,239 +977,252 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="26"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1"/>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="25" spans="1:2" ht="90">
-      <c r="A25" t="s">
+      <c r="B26" s="26"/>
+    </row>
+    <row r="27" spans="1:2" ht="90">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B28" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="17" t="s">
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="17" t="s">
+    <row r="30" spans="1:2" ht="45">
+      <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="21" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B31" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="21" t="s">
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B32" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="21" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B33" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="23" t="s">
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="60">
-      <c r="A33" s="21" t="s">
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B35" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60">
-      <c r="A34" s="21" t="s">
+    <row r="36" spans="1:2" ht="60">
+      <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="25" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="26"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="24" t="s">
+      <c r="B38" s="26"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="225">
-      <c r="A38" s="24" t="s">
+    <row r="40" spans="1:2" ht="225">
+      <c r="A40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B40" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="225">
-      <c r="A39" s="24" t="s">
+    <row r="41" spans="1:2" ht="225">
+      <c r="A41" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B41" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="24" t="s">
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B42" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="13"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5"/>
@@ -1210,22 +1244,22 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="29"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="29"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29"/>
@@ -1234,28 +1268,28 @@
       <c r="A59" s="29"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="29"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="27"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="27"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="29"/>
+      <c r="A64" s="27"/>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="29"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="29"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="5"/>
+      <c r="A67" s="29"/>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5"/>
@@ -1270,16 +1304,16 @@
       <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="5"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="5"/>
+      <c r="A74" s="31"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="5"/>
+      <c r="A75" s="31"/>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5"/>
@@ -1299,15 +1333,15 @@
     <row r="81" spans="1:2">
       <c r="A81" s="5"/>
     </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5"/>
+    </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="6"/>
+      <c r="A83" s="5"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6"/>
@@ -1319,34 +1353,34 @@
       <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="30"/>
+      <c r="A89" s="6"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="30"/>
+      <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="30"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="30"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="28"/>
+      <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="28"/>
+      <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="28"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6"/>
+      <c r="A96" s="28"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="8"/>
+      <c r="A97" s="28"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="8"/>
+      <c r="A98" s="6"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="8"/>
@@ -1360,47 +1394,55 @@
     <row r="102" spans="1:2">
       <c r="A102" s="8"/>
     </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8"/>
+    </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="28"/>
-      <c r="B105" s="19"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="28"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="9"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="28"/>
+      <c r="B107" s="19"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="28"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="React!A2" display="Up"/>
     <hyperlink ref="B5" r:id="rId1" tooltip="React.js: Getting Started" display="https://app.pluralsight.com/library/courses/react-js-getting-started"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
-    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId2" tooltip="Advanced React.js" display="https://app.pluralsight.com/library/courses/reactjs-advanced"/>
+    <hyperlink ref="B19" r:id="rId3"/>
     <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B37" r:id="rId5"/>
+    <hyperlink ref="B39" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://app.pluralsight.com/library/courses/graphql-scalable-apis"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://app.pluralsight.com/library/courses/react-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Topics</t>
   </si>
@@ -321,6 +321,42 @@
   </si>
   <si>
     <t>React Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>React Fundamentals - Definitions</t>
+  </si>
+  <si>
+    <t>Advantages of React</t>
+  </si>
+  <si>
+    <t>1. Speed ==  major design goal of React
+2. Declarative</t>
+  </si>
+  <si>
+    <t>React Component</t>
+  </si>
+  <si>
+    <t>props + state + render + DOM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>props + state</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>component + Model</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>1. component corresponds to element in the DOM
+2. components responsibility is rendering content of that element. Handling any events that occur with in it
+3. there can be nested components (this is called composing components). Nested components corresponds to nested DOM nodes</t>
   </si>
 </sst>
 </file>
@@ -473,7 +509,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -545,30 +581,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,8 +964,8 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,10 +983,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -966,10 +1005,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1004,10 +1043,10 @@
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
@@ -1016,10 +1055,10 @@
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1"/>
@@ -1035,10 +1074,10 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
@@ -1089,10 +1128,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:2" ht="90">
       <c r="A27" t="s">
@@ -1178,10 +1217,10 @@
       <c r="A37" s="14"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="26"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="24" t="s">
@@ -1219,22 +1258,50 @@
       <c r="A43" s="13"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="13"/>
+      <c r="A44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5"/>
+      <c r="A48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5"/>
@@ -1262,34 +1329,34 @@
       <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="29"/>
+      <c r="A58" s="32"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="32"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="29"/>
+      <c r="A60" s="32"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="32"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="30"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="30"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="29"/>
+      <c r="A65" s="32"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="29"/>
+      <c r="A66" s="32"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="29"/>
+      <c r="A67" s="32"/>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="5"/>
@@ -1310,10 +1377,10 @@
       <c r="A73" s="5"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="34"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="34"/>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="5"/>
@@ -1359,10 +1426,10 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="30"/>
+      <c r="A91" s="33"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="30"/>
+      <c r="A92" s="33"/>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="6"/>
@@ -1371,13 +1438,13 @@
       <c r="A94" s="6"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="28"/>
+      <c r="A95" s="31"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="28"/>
+      <c r="A96" s="31"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="28"/>
+      <c r="A97" s="31"/>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6"/>
@@ -1405,17 +1472,17 @@
       <c r="B106" s="11"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="28"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="19"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="28"/>
+      <c r="A108" s="31"/>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
@@ -1430,6 +1497,7 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>

--- a/Definitions/y_Definitions_React_JS.xlsx
+++ b/Definitions/y_Definitions_React_JS.xlsx
@@ -964,8 +964,8 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
